--- a/documents & instructions/wymagania-projekt-hih.xlsx
+++ b/documents & instructions/wymagania-projekt-hih.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\source\finance-and-investing\documents &amp; instructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3DED25-7DFD-46C7-B59D-8974C5593D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58EB61B-4FF8-43DC-86AD-4E9FF6E3E537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12504" xr2:uid="{0CF5297F-440D-454E-B6EA-0A26D2387EED}"/>
+    <workbookView xWindow="-23148" yWindow="4200" windowWidth="23256" windowHeight="12456" xr2:uid="{0CF5297F-440D-454E-B6EA-0A26D2387EED}"/>
   </bookViews>
   <sheets>
     <sheet name="wymagania" sheetId="1" r:id="rId1"/>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>Suma</t>
+  </si>
+  <si>
+    <t>walidacja css (0,5pkt) (http://jigsaw.w3.org/css-validator/) - sprawdzić po ukończeniu projektu, obecnie OK</t>
+  </si>
+  <si>
+    <t>walidacja HTML (1pkt) (https://validator.w3.org/) - sprawdzić po ukończeniu projektu, obecnie OK</t>
+  </si>
+  <si>
+    <t>Uzyskane punkty</t>
   </si>
   <si>
     <r>
@@ -181,17 +190,8 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>OK?</t>
+      <t>OK</t>
     </r>
-  </si>
-  <si>
-    <t>walidacja css (0,5pkt) (http://jigsaw.w3.org/css-validator/) - sprawdzić po ukończeniu projektu, obecnie OK</t>
-  </si>
-  <si>
-    <t>walidacja HTML (1pkt) (https://validator.w3.org/) - sprawdzić po ukończeniu projektu, obecnie OK</t>
-  </si>
-  <si>
-    <t>Uzyskane punkty</t>
   </si>
 </sst>
 </file>
@@ -624,18 +624,18 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="68.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.6328125" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" customWidth="1"/>
+    <col min="3" max="3" width="24.36328125" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -646,27 +646,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="B2">
         <v>1.6</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <f>IF(Tabela4[[#This Row],[Czy spełnione]]=1,Tabela4[[#This Row],[Ilość punktów]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -679,9 +679,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -694,7 +694,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -724,7 +724,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -739,7 +739,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -754,7 +754,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -769,7 +769,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -784,7 +784,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -792,14 +792,14 @@
         <v>0.6</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <f>IF(Tabela4[[#This Row],[Czy spełnione]]=1,Tabela4[[#This Row],[Ilość punktów]],0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -814,7 +814,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -829,7 +829,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -844,7 +844,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -859,7 +859,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -874,7 +874,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -889,7 +889,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -904,7 +904,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -919,7 +919,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -934,7 +934,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -944,11 +944,11 @@
       </c>
       <c r="C21">
         <f>SUBTOTAL(109,C2:C20)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <f>SUBTOTAL(109,D2:D20)</f>
-        <v>8.7999999999999989</v>
+        <v>10.999999999999996</v>
       </c>
     </row>
   </sheetData>
